--- a/trunk/Tep/Template/TemplateReaktivka.xlsx
+++ b/trunk/Tep/Template/TemplateReaktivka.xlsx
@@ -550,7 +550,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,12 +908,30 @@
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="B37" s="5">
+        <f>SUM(B6:B36)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <f>SUM(C6:C36)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <f>SUM(D6:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <f>SUM(E6:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <f>SUM(F6:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <f>SUM(G6:G36)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
